--- a/data/db/j0db_schemata.xlsx
+++ b/data/db/j0db_schemata.xlsx
@@ -1,49 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="j0db_user" sheetId="1" r:id="rId1"/>
+    <sheet name="j0db_user" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>j0k3r</t>
-  </si>
-  <si>
-    <t>ca62f15baa2d3178c51f22bcd0eb92abf3f713ea</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,16 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -356,30 +340,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>j0k3r</t>
+        </is>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ca62f15baa2d3178c51f22bcd0eb92abf3f713ea</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>